--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_348__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_999/metrics/Trial_348__Reeval_LHS_Modell_1.1.xlsx
@@ -5873,46 +5873,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
                 <c:pt idx="0">
-                  <c:v>3.595410823822021</c:v>
+                  <c:v>3.595420122146606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.05076789855957</c:v>
+                  <c:v>16.05075454711914</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.22740840911865</c:v>
+                  <c:v>13.22741603851318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.41036319732666</c:v>
+                  <c:v>8.410356521606445</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44.59852600097656</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.67456817626953</c:v>
+                  <c:v>18.6745662689209</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.24088668823242</c:v>
+                  <c:v>35.24090194702148</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10.69071483612061</c:v>
+                  <c:v>10.6907262802124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>11.32376575469971</c:v>
+                  <c:v>11.32374668121338</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.03013526648283005</c:v>
+                  <c:v>0.03013497777283192</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31.81760025024414</c:v>
+                  <c:v>31.81758499145508</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9568190574646</c:v>
+                  <c:v>2.956823587417603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.96191787719727</c:v>
+                  <c:v>27.96191215515137</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.91363334655762</c:v>
+                  <c:v>12.91361904144287</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>8.897431373596191</c:v>
@@ -5921,13 +5921,13 @@
                   <c:v>32.02064514160156</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.72820472717285</c:v>
+                  <c:v>26.72820854187012</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18.39256858825684</c:v>
+                  <c:v>18.3925724029541</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.66596794128418</c:v>
+                  <c:v>12.66596508026123</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>21.25413513183594</c:v>
@@ -5936,7 +5936,7 @@
                   <c:v>29.56081008911133</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>12.72186374664307</c:v>
+                  <c:v>12.72186660766602</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>19.99029541015625</c:v>
@@ -5945,226 +5945,226 @@
                   <c:v>28.42243766784668</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.528200149536133</c:v>
+                  <c:v>5.528204917907715</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.63653564453125</c:v>
+                  <c:v>12.63654708862305</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.85887336730957</c:v>
+                  <c:v>20.85888671875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>18.19974136352539</c:v>
+                  <c:v>18.19973754882812</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>24.24278259277344</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.91429328918457</c:v>
+                  <c:v>20.91428756713867</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>23.8186092376709</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.577149391174316</c:v>
+                  <c:v>9.577156066894531</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22.28523445129395</c:v>
+                  <c:v>22.28523254394531</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>13.66831588745117</c:v>
+                  <c:v>13.66830635070801</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.49516487121582</c:v>
+                  <c:v>11.4951696395874</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35.55841445922852</c:v>
+                  <c:v>35.55840682983398</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.769131660461426</c:v>
+                  <c:v>8.769136428833008</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.25676965713501</c:v>
+                  <c:v>4.256772518157959</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>13.21349620819092</c:v>
+                  <c:v>13.21349811553955</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>18.774658203125</c:v>
+                  <c:v>18.77465629577637</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>25.78727340698242</c:v>
+                  <c:v>25.78726768493652</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>30.61880493164062</c:v>
+                  <c:v>30.61879920959473</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.2818319797515869</c:v>
+                  <c:v>-0.2818394899368286</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.57363510131836</c:v>
+                  <c:v>21.57364082336426</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27.42673301696777</c:v>
+                  <c:v>27.4267406463623</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>15.58593845367432</c:v>
+                  <c:v>15.58593273162842</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15.68217372894287</c:v>
+                  <c:v>15.68217086791992</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>16.87685012817383</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>21.57309722900391</c:v>
+                  <c:v>21.57310104370117</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.2725944519043</c:v>
+                  <c:v>20.27260398864746</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>13.45456981658936</c:v>
+                  <c:v>13.45456886291504</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>16.75468254089355</c:v>
+                  <c:v>16.75468635559082</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>26.03809547424316</c:v>
+                  <c:v>26.0380916595459</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>17.87302780151367</c:v>
+                  <c:v>17.87300872802734</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>22.61235237121582</c:v>
+                  <c:v>22.61234283447266</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.07884788513184</c:v>
+                  <c:v>22.0788459777832</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>7.279852867126465</c:v>
+                  <c:v>7.279850482940674</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>16.98777770996094</c:v>
+                  <c:v>16.98777389526367</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.420769214630127</c:v>
+                  <c:v>5.420766830444336</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>21.75821113586426</c:v>
+                  <c:v>21.75822067260742</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>25.8864574432373</c:v>
+                  <c:v>25.8864631652832</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>13.91340446472168</c:v>
+                  <c:v>13.91340732574463</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>33.34983062744141</c:v>
+                  <c:v>33.34980010986328</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>21.6959228515625</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>11.94780445098877</c:v>
+                  <c:v>11.9478063583374</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19.21863555908203</c:v>
+                  <c:v>19.21863174438477</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>16.71578788757324</c:v>
+                  <c:v>16.71580123901367</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>17.5023365020752</c:v>
+                  <c:v>17.5023307800293</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.173871040344238</c:v>
+                  <c:v>9.173873901367188</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>15.12685680389404</c:v>
+                  <c:v>15.12686634063721</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>20.81589317321777</c:v>
+                  <c:v>20.81589698791504</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>31.80130386352539</c:v>
+                  <c:v>31.80129432678223</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.77621555328369</c:v>
+                  <c:v>15.77622318267822</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>10.80940341949463</c:v>
+                  <c:v>10.80941867828369</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>22.83480834960938</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>20.64406776428223</c:v>
+                  <c:v>20.64406204223633</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>9.720418930053711</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.922608494758606</c:v>
+                  <c:v>1.922601580619812</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>24.51896667480469</c:v>
+                  <c:v>24.51896286010742</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-4.259931564331055</c:v>
+                  <c:v>-4.25993824005127</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>16.3851261138916</c:v>
+                  <c:v>16.3851318359375</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.36578941345215</c:v>
+                  <c:v>19.36578750610352</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>20.45693969726562</c:v>
+                  <c:v>20.45693016052246</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>25.45607566833496</c:v>
+                  <c:v>25.45607948303223</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.38367176055908</c:v>
+                  <c:v>15.38367366790771</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.8078243732452393</c:v>
+                  <c:v>0.8078174591064453</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.130666255950928</c:v>
+                  <c:v>6.130667686462402</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>32.11903762817383</c:v>
+                  <c:v>32.11904525756836</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>15.84647083282471</c:v>
+                  <c:v>15.84646892547607</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.761772155761719</c:v>
+                  <c:v>8.761762619018555</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>19.96235084533691</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9.137728691101074</c:v>
+                  <c:v>9.137720108032227</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>17.37919616699219</c:v>
+                  <c:v>17.37919044494629</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>16.00309562683105</c:v>
+                  <c:v>16.00309371948242</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.4825387299060822</c:v>
+                  <c:v>-0.4825410544872284</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>26.17949867248535</c:v>
+                  <c:v>26.17949295043945</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>17.50116920471191</c:v>
+                  <c:v>17.50115966796875</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>29.33249664306641</c:v>
+                  <c:v>29.33250045776367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.595410823822021</v>
+        <v>3.595420122146606</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>16.05076789855957</v>
+        <v>16.05075454711914</v>
       </c>
       <c r="G3">
         <v>86</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.22740840911865</v>
+        <v>13.22741603851318</v>
       </c>
       <c r="G4">
         <v>86</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>8.41036319732666</v>
+        <v>8.410356521606445</v>
       </c>
       <c r="G5">
         <v>86</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.67456817626953</v>
+        <v>18.6745662689209</v>
       </c>
       <c r="G7">
         <v>86</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.24088668823242</v>
+        <v>35.24090194702148</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10.69071483612061</v>
+        <v>10.6907262802124</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>11.32376575469971</v>
+        <v>11.32374668121338</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.03013526648283005</v>
+        <v>0.03013497777283192</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.81760025024414</v>
+        <v>31.81758499145508</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>2.9568190574646</v>
+        <v>2.956823587417603</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.96191787719727</v>
+        <v>27.96191215515137</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>12.91363334655762</v>
+        <v>12.91361904144287</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.72820472717285</v>
+        <v>26.72820854187012</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>18.39256858825684</v>
+        <v>18.3925724029541</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>12.66596794128418</v>
+        <v>12.66596508026123</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>12.72186374664307</v>
+        <v>12.72186660766602</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>5.528200149536133</v>
+        <v>5.528204917907715</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>12.63653564453125</v>
+        <v>12.63654708862305</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>20.85887336730957</v>
+        <v>20.85888671875</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>18.19974136352539</v>
+        <v>18.19973754882812</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>20.91429328918457</v>
+        <v>20.91428756713867</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>9.577149391174316</v>
+        <v>9.577156066894531</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>22.28523445129395</v>
+        <v>22.28523254394531</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>13.66831588745117</v>
+        <v>13.66830635070801</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>11.49516487121582</v>
+        <v>11.4951696395874</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>35.55841445922852</v>
+        <v>35.55840682983398</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.769131660461426</v>
+        <v>8.769136428833008</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>4.25676965713501</v>
+        <v>4.256772518157959</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>13.21349620819092</v>
+        <v>13.21349811553955</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>18.774658203125</v>
+        <v>18.77465629577637</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>25.78727340698242</v>
+        <v>25.78726768493652</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>30.61880493164062</v>
+        <v>30.61879920959473</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.2818319797515869</v>
+        <v>-0.2818394899368286</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>21.57363510131836</v>
+        <v>21.57364082336426</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>27.42673301696777</v>
+        <v>27.4267406463623</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>15.58593845367432</v>
+        <v>15.58593273162842</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>15.68217372894287</v>
+        <v>15.68217086791992</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>21.57309722900391</v>
+        <v>21.57310104370117</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>20.2725944519043</v>
+        <v>20.27260398864746</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>13.45456981658936</v>
+        <v>13.45456886291504</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>16.75468254089355</v>
+        <v>16.75468635559082</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>26.03809547424316</v>
+        <v>26.0380916595459</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>17.87302780151367</v>
+        <v>17.87300872802734</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>22.61235237121582</v>
+        <v>22.61234283447266</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>22.07884788513184</v>
+        <v>22.0788459777832</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>7.279852867126465</v>
+        <v>7.279850482940674</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>52.1266</v>
       </c>
       <c r="F59">
-        <v>16.98777770996094</v>
+        <v>16.98777389526367</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>5.420769214630127</v>
+        <v>5.420766830444336</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>21.75821113586426</v>
+        <v>21.75822067260742</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>25.8864574432373</v>
+        <v>25.8864631652832</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>13.91340446472168</v>
+        <v>13.91340732574463</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>33.34983062744141</v>
+        <v>33.34980010986328</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>11.94780445098877</v>
+        <v>11.9478063583374</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>19.21863555908203</v>
+        <v>19.21863174438477</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>16.71578788757324</v>
+        <v>16.71580123901367</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>17.5023365020752</v>
+        <v>17.5023307800293</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>9.173871040344238</v>
+        <v>9.173873901367188</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>15.12685680389404</v>
+        <v>15.12686634063721</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>52.2351</v>
       </c>
       <c r="F72">
-        <v>20.81589317321777</v>
+        <v>20.81589698791504</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>31.80130386352539</v>
+        <v>31.80129432678223</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>15.77621555328369</v>
+        <v>15.77622318267822</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>10.80940341949463</v>
+        <v>10.80941867828369</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>20.64406776428223</v>
+        <v>20.64406204223633</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.922608494758606</v>
+        <v>1.922601580619812</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>24.51896667480469</v>
+        <v>24.51896286010742</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-4.259931564331055</v>
+        <v>-4.25993824005127</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>16.3851261138916</v>
+        <v>16.3851318359375</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.36578941345215</v>
+        <v>19.36578750610352</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>20.45693969726562</v>
+        <v>20.45693016052246</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>25.45607566833496</v>
+        <v>25.45607948303223</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>51.5452</v>
       </c>
       <c r="F86">
-        <v>15.38367176055908</v>
+        <v>15.38367366790771</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.8078243732452393</v>
+        <v>0.8078174591064453</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>6.130666255950928</v>
+        <v>6.130667686462402</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>50.4563</v>
       </c>
       <c r="F89">
-        <v>32.11903762817383</v>
+        <v>32.11904525756836</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>15.84647083282471</v>
+        <v>15.84646892547607</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>8.761772155761719</v>
+        <v>8.761762619018555</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>9.137728691101074</v>
+        <v>9.137720108032227</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>17.37919616699219</v>
+        <v>17.37919044494629</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>16.00309562683105</v>
+        <v>16.00309371948242</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>53.4777</v>
       </c>
       <c r="F96">
-        <v>-0.4825387299060822</v>
+        <v>-0.4825410544872284</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>26.17949867248535</v>
+        <v>26.17949295043945</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>17.50116920471191</v>
+        <v>17.50115966796875</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>29.33249664306641</v>
+        <v>29.33250045776367</v>
       </c>
     </row>
     <row r="100" spans="1:6">
